--- a/GAP.xlsx
+++ b/GAP.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\AAAToBackup\ricerche\Mateuristici\STORi lancaster\codice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83286899-285D-46B8-8DCE-5B628010C5D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9AE88EC-0D2A-41E3-9845-2509F08E9714}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="760" yWindow="760" windowWidth="18050" windowHeight="11110" activeTab="4" xr2:uid="{4A7EC8E3-D6E4-4616-AC04-4DAD7B0477C8}"/>
+    <workbookView xWindow="1150" yWindow="1690" windowWidth="18050" windowHeight="11110" firstSheet="1" activeTab="4" xr2:uid="{4A7EC8E3-D6E4-4616-AC04-4DAD7B0477C8}"/>
   </bookViews>
   <sheets>
     <sheet name="EMPTY" sheetId="6" r:id="rId1"/>
@@ -1522,7 +1522,7 @@
   <dimension ref="A1:AE18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="AB4" sqref="AB4"/>
+      <selection activeCell="N22" sqref="N22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.453125" defaultRowHeight="14.5"/>
@@ -1621,52 +1621,52 @@
     </row>
     <row r="2" spans="1:31">
       <c r="B2" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H2" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J2" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K2" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L2" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M2" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N2" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O2" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P2" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q2" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R2" s="3">
         <v>0</v>
@@ -1805,71 +1805,71 @@
       </c>
       <c r="J4">
         <f>J3+$AD$6</f>
-        <v>22</v>
+        <v>-28</v>
       </c>
       <c r="K4">
         <f t="shared" ref="K4:Q4" si="1">K3+$AD$6</f>
-        <v>24</v>
+        <v>-26</v>
       </c>
       <c r="L4">
         <f t="shared" si="1"/>
-        <v>26</v>
+        <v>-24</v>
       </c>
       <c r="M4">
         <f t="shared" si="1"/>
-        <v>28</v>
+        <v>-22</v>
       </c>
       <c r="N4">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>-20</v>
       </c>
       <c r="O4">
         <f t="shared" si="1"/>
-        <v>32</v>
+        <v>-18</v>
       </c>
       <c r="P4">
         <f t="shared" si="1"/>
-        <v>34</v>
+        <v>-16</v>
       </c>
       <c r="Q4">
         <f t="shared" si="1"/>
-        <v>36</v>
+        <v>-14</v>
       </c>
       <c r="R4">
         <f>R3+$AD$7</f>
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="S4">
         <f t="shared" ref="S4:Y4" si="2">S3+$AD$7</f>
-        <v>64</v>
+        <v>24</v>
       </c>
       <c r="T4">
         <f t="shared" si="2"/>
-        <v>68</v>
+        <v>28</v>
       </c>
       <c r="U4">
         <f t="shared" si="2"/>
-        <v>72</v>
+        <v>32</v>
       </c>
       <c r="V4">
         <f t="shared" si="2"/>
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="W4">
         <f t="shared" si="2"/>
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="X4">
         <f t="shared" si="2"/>
-        <v>84</v>
+        <v>44</v>
       </c>
       <c r="Y4">
         <f t="shared" si="2"/>
-        <v>88</v>
+        <v>48</v>
       </c>
       <c r="AB4" s="2">
         <f>SUMPRODUCT(B4:Y4,B2:Y2)+SUM(AD5:AD7)</f>
-        <v>108</v>
+        <v>-258</v>
       </c>
     </row>
     <row r="5" spans="1:31">
@@ -1918,21 +1918,21 @@
       <c r="Y5" s="4"/>
       <c r="AA5" s="3">
         <f>SUMPRODUCT(B5:Y5,$B$2:$Y$2)</f>
-        <v>356</v>
+        <v>0</v>
       </c>
       <c r="AB5">
         <v>160</v>
       </c>
       <c r="AC5">
         <f>AA5-AB5</f>
-        <v>196</v>
+        <v>-160</v>
       </c>
       <c r="AD5">
         <v>0</v>
       </c>
       <c r="AE5">
         <f>AD5+MIN(0,$AC$18*AC5)</f>
-        <v>0</v>
+        <v>-3.2051124493056409</v>
       </c>
     </row>
     <row r="6" spans="1:31">
@@ -1965,21 +1965,21 @@
       </c>
       <c r="AA6" s="3">
         <f t="shared" ref="AA6:AA15" si="3">SUMPRODUCT(B6:Y6,$B$2:$Y$2)</f>
-        <v>0</v>
+        <v>276</v>
       </c>
       <c r="AB6">
         <v>90</v>
       </c>
       <c r="AC6">
         <f t="shared" ref="AC6:AC7" si="4">AA6-AB6</f>
-        <v>-90</v>
+        <v>186</v>
       </c>
       <c r="AD6">
-        <v>0</v>
+        <v>-50</v>
       </c>
       <c r="AE6">
         <f t="shared" ref="AE6:AE7" si="5">AD6+MIN(0,$AC$18*AC6)</f>
-        <v>-2.282557958612105</v>
+        <v>-50</v>
       </c>
     </row>
     <row r="7" spans="1:31">
@@ -2038,11 +2038,11 @@
         <v>-70</v>
       </c>
       <c r="AD7">
-        <v>0</v>
+        <v>-40</v>
       </c>
       <c r="AE7">
         <f t="shared" si="5"/>
-        <v>-1.7753228566983039</v>
+        <v>-41.402236696571215</v>
       </c>
     </row>
     <row r="8" spans="1:31">
@@ -2246,7 +2246,7 @@
       </c>
       <c r="AC17">
         <f>SUMPRODUCT(AC5:AC7,AC5:AC7)</f>
-        <v>51416</v>
+        <v>65096</v>
       </c>
     </row>
     <row r="18" spans="23:29">
@@ -2261,7 +2261,7 @@
       </c>
       <c r="AC18">
         <f>X18*(X17-AB3)/AC17</f>
-        <v>2.5361755095690056E-2</v>
+        <v>2.0031952808160256E-2</v>
       </c>
     </row>
   </sheetData>
@@ -2274,7 +2274,7 @@
   <dimension ref="A1:AE18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="AE20" sqref="AE20"/>
+      <selection activeCell="AD16" sqref="AD16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.453125" defaultRowHeight="14.5"/>
@@ -2372,7 +2372,7 @@
     </row>
     <row r="2" spans="1:31">
       <c r="B2" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2" s="3">
         <v>0</v>
@@ -2381,7 +2381,7 @@
         <v>0</v>
       </c>
       <c r="E2" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2" s="3">
         <v>0</v>
@@ -2390,13 +2390,13 @@
         <v>0</v>
       </c>
       <c r="H2" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" s="3">
         <v>0</v>
       </c>
       <c r="J2" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K2" s="3">
         <v>0</v>
@@ -2414,7 +2414,7 @@
         <v>0</v>
       </c>
       <c r="P2" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q2" s="3">
         <v>0</v>
@@ -2429,16 +2429,16 @@
         <v>0</v>
       </c>
       <c r="U2" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V2" s="3">
         <v>0</v>
       </c>
       <c r="W2" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X2" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y2" s="3">
         <v>0</v>
@@ -2620,7 +2620,7 @@
       </c>
       <c r="AB4" s="2">
         <f>SUMPRODUCT(B4:Y4,B2:Y2)+SUM(AD8:AD15)</f>
-        <v>0</v>
+        <v>331</v>
       </c>
     </row>
     <row r="5" spans="1:31">
@@ -2669,7 +2669,7 @@
       <c r="Y5" s="4"/>
       <c r="AA5" s="3">
         <f>SUMPRODUCT(B5:Y5,$B$2:$Y$2)</f>
-        <v>0</v>
+        <v>135</v>
       </c>
       <c r="AB5">
         <v>160</v>
@@ -2705,7 +2705,7 @@
       </c>
       <c r="AA6" s="3">
         <f t="shared" ref="AA6:AA15" si="0">SUMPRODUCT(B6:Y6,$B$2:$Y$2)</f>
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AB6">
         <v>90</v>
@@ -2757,7 +2757,7 @@
       </c>
       <c r="AA7" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AB7">
         <v>70</v>
@@ -2778,21 +2778,21 @@
       </c>
       <c r="AA8" s="3">
         <f>SUMPRODUCT(B8:Y8,$B$2:$Y$2)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB8">
         <v>1</v>
       </c>
       <c r="AC8">
         <f>AB8-AA8</f>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AD8">
         <v>0</v>
       </c>
       <c r="AE8">
         <f>AD8+$AC$18*AC8</f>
-        <v>163</v>
+        <v>-48.9</v>
       </c>
     </row>
     <row r="9" spans="1:31">
@@ -2824,7 +2824,7 @@
       </c>
       <c r="AE9">
         <f t="shared" ref="AE9:AE15" si="2">AD9+$AC$18*AC9</f>
-        <v>163</v>
+        <v>48.9</v>
       </c>
     </row>
     <row r="10" spans="1:31">
@@ -2856,7 +2856,7 @@
       </c>
       <c r="AE10">
         <f>AD10+$AC$18*AC10</f>
-        <v>163</v>
+        <v>48.9</v>
       </c>
     </row>
     <row r="11" spans="1:31">
@@ -2874,21 +2874,21 @@
       </c>
       <c r="AA11" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB11">
         <v>1</v>
       </c>
       <c r="AC11">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AD11">
         <v>0</v>
       </c>
       <c r="AE11">
         <f t="shared" si="2"/>
-        <v>163</v>
+        <v>-48.9</v>
       </c>
     </row>
     <row r="12" spans="1:31">
@@ -2920,7 +2920,7 @@
       </c>
       <c r="AE12">
         <f t="shared" si="2"/>
-        <v>163</v>
+        <v>48.9</v>
       </c>
     </row>
     <row r="13" spans="1:31">
@@ -2938,21 +2938,21 @@
       </c>
       <c r="AA13" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB13">
         <v>1</v>
       </c>
       <c r="AC13">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD13">
         <v>0</v>
       </c>
       <c r="AE13">
         <f t="shared" si="2"/>
-        <v>163</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:31">
@@ -2970,21 +2970,21 @@
       </c>
       <c r="AA14" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AB14">
         <v>1</v>
       </c>
       <c r="AC14">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="AD14">
         <v>0</v>
       </c>
       <c r="AE14">
         <f t="shared" si="2"/>
-        <v>163</v>
+        <v>-97.8</v>
       </c>
     </row>
     <row r="15" spans="1:31">
@@ -3037,7 +3037,7 @@
       </c>
       <c r="AE15">
         <f t="shared" si="2"/>
-        <v>163</v>
+        <v>48.9</v>
       </c>
     </row>
     <row r="17" spans="23:29">
@@ -3052,7 +3052,7 @@
       </c>
       <c r="AC17">
         <f>SUMPRODUCT(AC8:AC15,AC8:AC15)</f>
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="23:29">
@@ -3060,14 +3060,14 @@
         <v>41</v>
       </c>
       <c r="X18">
-        <v>4</v>
+        <v>1.5</v>
       </c>
       <c r="AA18" t="s">
         <v>42</v>
       </c>
       <c r="AC18">
         <f>X18*(X17-AB3)/AC17</f>
-        <v>163</v>
+        <v>48.9</v>
       </c>
     </row>
   </sheetData>
@@ -3080,7 +3080,7 @@
   <dimension ref="A1:AA21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AE13" sqref="AE13"/>
+      <selection activeCell="AD11" sqref="AD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.7265625" defaultRowHeight="14.5"/>
@@ -3354,6 +3354,7 @@
         <v>-4</v>
       </c>
       <c r="AA6">
+        <f>L1-COUNT(B1:I1)</f>
         <v>-4</v>
       </c>
     </row>
